--- a/Data/Mfp/Mfp_Model_Base_1'2022-1.xlsx
+++ b/Data/Mfp/Mfp_Model_Base_1'2022-1.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$CJ$380</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1801,8 +1801,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:CF380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="L228" sqref="L228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
